--- a/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
+++ b/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB743190-6EC8-4044-87CC-6141B4F1C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1A9A8-0FE2-434B-BB88-28394D4F9D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45300" yWindow="500" windowWidth="20700" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="500" windowWidth="16180" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="1732">
   <si>
     <t>ccif</t>
   </si>
@@ -5678,10 +5678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M457"/>
+  <dimension ref="A1:M454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="141" workbookViewId="0">
+      <selection activeCell="A445" sqref="A445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19559,8 +19559,8 @@
       <c r="C448" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D448" s="3" t="s">
-        <v>1107</v>
+      <c r="D448" s="3">
+        <v>909156</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>1107</v>
@@ -19579,8 +19579,8 @@
       <c r="C449" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D449" s="3" t="s">
-        <v>1108</v>
+      <c r="D449" s="3">
+        <v>909157</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>1108</v>
@@ -19599,8 +19599,8 @@
       <c r="C450" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D450" s="3" t="s">
-        <v>1109</v>
+      <c r="D450" s="3">
+        <v>808158</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>1109</v>
@@ -19619,8 +19619,8 @@
       <c r="C451" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="D451" s="3" t="s">
-        <v>1110</v>
+      <c r="D451" s="3">
+        <v>909159</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>1110</v>
@@ -19639,8 +19639,8 @@
       <c r="C452" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="D452" s="3" t="s">
-        <v>1111</v>
+      <c r="D452" s="3">
+        <v>909160</v>
       </c>
       <c r="E452" s="3" t="s">
         <v>1111</v>
@@ -19659,8 +19659,8 @@
       <c r="C453" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="D453" s="3" t="s">
-        <v>1112</v>
+      <c r="D453" s="3">
+        <v>909161</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>1112</v>
@@ -19679,18 +19679,13 @@
       <c r="C454" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="D454" s="3" t="s">
-        <v>1113</v>
+      <c r="D454" s="3">
+        <v>909162</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>1113</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C457" s="5" t="s">
         <v>622</v>
       </c>
     </row>

--- a/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
+++ b/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C5585-2953-FF44-9226-3261248404D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E12E3D7-AFCE-E442-AE3C-2E62779D3E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="640" windowWidth="16500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46820" yWindow="500" windowWidth="16500" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="2174">
   <si>
     <t>ccif</t>
   </si>
@@ -6294,9 +6294,6 @@
   </si>
   <si>
     <t>909068</t>
-  </si>
-  <si>
-    <t>909069</t>
   </si>
   <si>
     <t>909070</t>
@@ -7040,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="188" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="188" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10917,7 +10914,7 @@
     </row>
     <row r="123" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>324</v>
@@ -12129,7 +12126,7 @@
     </row>
     <row r="162" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>1425</v>
@@ -18263,8 +18260,8 @@
       <c r="C361" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D361" t="s">
-        <v>2086</v>
+      <c r="D361">
+        <v>909069</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>1019</v>
@@ -18296,7 +18293,7 @@
         <v>311</v>
       </c>
       <c r="D362" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E362" s="19" t="s">
         <v>1020</v>
@@ -18324,7 +18321,7 @@
         <v>1286</v>
       </c>
       <c r="D363" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>1021</v>
@@ -18354,7 +18351,7 @@
         <v>560</v>
       </c>
       <c r="D364" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>1022</v>
@@ -18386,7 +18383,7 @@
         <v>1289</v>
       </c>
       <c r="D365" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>1023</v>
@@ -18416,7 +18413,7 @@
         <v>561</v>
       </c>
       <c r="D366" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>1024</v>
@@ -18448,7 +18445,7 @@
         <v>1292</v>
       </c>
       <c r="D367" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>1025</v>
@@ -18478,7 +18475,7 @@
         <v>562</v>
       </c>
       <c r="D368" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>1026</v>
@@ -18510,7 +18507,7 @@
         <v>313</v>
       </c>
       <c r="D369" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E369" s="19" t="s">
         <v>1027</v>
@@ -18538,7 +18535,7 @@
         <v>1296</v>
       </c>
       <c r="D370" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="E370" s="15" t="s">
         <v>1028</v>
@@ -18568,7 +18565,7 @@
         <v>563</v>
       </c>
       <c r="D371" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>1029</v>
@@ -18600,7 +18597,7 @@
         <v>564</v>
       </c>
       <c r="D372" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>1030</v>
@@ -18632,7 +18629,7 @@
         <v>1300</v>
       </c>
       <c r="D373" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E373" s="15" t="s">
         <v>1031</v>
@@ -18662,7 +18659,7 @@
         <v>565</v>
       </c>
       <c r="D374" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>1032</v>
@@ -18694,7 +18691,7 @@
         <v>1303</v>
       </c>
       <c r="D375" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E375" s="15" t="s">
         <v>1033</v>
@@ -18724,7 +18721,7 @@
         <v>566</v>
       </c>
       <c r="D376" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>1034</v>
@@ -18756,7 +18753,7 @@
         <v>317</v>
       </c>
       <c r="D377" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E377" s="19" t="s">
         <v>1035</v>
@@ -18784,7 +18781,7 @@
         <v>1306</v>
       </c>
       <c r="D378" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E378" s="15" t="s">
         <v>1036</v>
@@ -18814,7 +18811,7 @@
         <v>567</v>
       </c>
       <c r="D379" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>1037</v>
@@ -18846,7 +18843,7 @@
         <v>575</v>
       </c>
       <c r="D380" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E380" s="16" t="s">
         <v>1038</v>
@@ -18872,7 +18869,7 @@
         <v>323</v>
       </c>
       <c r="D381" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E381" s="19" t="s">
         <v>1039</v>
@@ -18900,7 +18897,7 @@
         <v>576</v>
       </c>
       <c r="D382" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E382" s="15" t="s">
         <v>1040</v>
@@ -18930,7 +18927,7 @@
         <v>569</v>
       </c>
       <c r="D383" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>1041</v>
@@ -18962,7 +18959,7 @@
         <v>570</v>
       </c>
       <c r="D384" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>1042</v>
@@ -18994,7 +18991,7 @@
         <v>329</v>
       </c>
       <c r="D385" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E385" s="19" t="s">
         <v>1043</v>
@@ -19022,7 +19019,7 @@
         <v>579</v>
       </c>
       <c r="D386" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E386" s="15" t="s">
         <v>1044</v>
@@ -19052,7 +19049,7 @@
         <v>571</v>
       </c>
       <c r="D387" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>1045</v>
@@ -19084,7 +19081,7 @@
         <v>332</v>
       </c>
       <c r="D388" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E388" s="19" t="s">
         <v>1046</v>
@@ -19112,7 +19109,7 @@
         <v>581</v>
       </c>
       <c r="D389" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E389" s="15" t="s">
         <v>1047</v>
@@ -19142,7 +19139,7 @@
         <v>572</v>
       </c>
       <c r="D390" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>1048</v>
@@ -19174,7 +19171,7 @@
         <v>335</v>
       </c>
       <c r="D391" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E391" s="19" t="s">
         <v>1049</v>
@@ -19202,7 +19199,7 @@
         <v>583</v>
       </c>
       <c r="D392" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E392" s="15" t="s">
         <v>1050</v>
@@ -19232,7 +19229,7 @@
         <v>573</v>
       </c>
       <c r="D393" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>1051</v>
@@ -19264,7 +19261,7 @@
         <v>338</v>
       </c>
       <c r="D394" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E394" s="19" t="s">
         <v>1052</v>
@@ -19292,7 +19289,7 @@
         <v>585</v>
       </c>
       <c r="D395" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E395" s="15" t="s">
         <v>1053</v>
@@ -19322,7 +19319,7 @@
         <v>574</v>
       </c>
       <c r="D396" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>1054</v>
@@ -19354,7 +19351,7 @@
         <v>577</v>
       </c>
       <c r="D397" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>1055</v>
@@ -19386,7 +19383,7 @@
         <v>588</v>
       </c>
       <c r="D398" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E398" s="16" t="s">
         <v>1056</v>
@@ -19412,7 +19409,7 @@
         <v>356</v>
       </c>
       <c r="D399" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E399" s="19" t="s">
         <v>1057</v>
@@ -19440,7 +19437,7 @@
         <v>589</v>
       </c>
       <c r="D400" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E400" s="15" t="s">
         <v>1058</v>
@@ -19470,7 +19467,7 @@
         <v>578</v>
       </c>
       <c r="D401" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>1059</v>
@@ -19502,7 +19499,7 @@
         <v>580</v>
       </c>
       <c r="D402" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>1060</v>
@@ -19534,7 +19531,7 @@
         <v>582</v>
       </c>
       <c r="D403" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>1061</v>
@@ -19566,7 +19563,7 @@
         <v>584</v>
       </c>
       <c r="D404" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>1062</v>
@@ -19598,7 +19595,7 @@
         <v>586</v>
       </c>
       <c r="D405" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>1063</v>
@@ -19630,7 +19627,7 @@
         <v>587</v>
       </c>
       <c r="D406" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>1064</v>
@@ -19662,7 +19659,7 @@
         <v>590</v>
       </c>
       <c r="D407" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>1065</v>
@@ -19694,7 +19691,7 @@
         <v>358</v>
       </c>
       <c r="D408" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E408" s="19" t="s">
         <v>1066</v>
@@ -19722,7 +19719,7 @@
         <v>598</v>
       </c>
       <c r="D409" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E409" s="15" t="s">
         <v>1067</v>
@@ -19752,7 +19749,7 @@
         <v>591</v>
       </c>
       <c r="D410" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>1068</v>
@@ -19784,7 +19781,7 @@
         <v>600</v>
       </c>
       <c r="D411" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E411" s="16" t="s">
         <v>1069</v>
@@ -19810,7 +19807,7 @@
         <v>375</v>
       </c>
       <c r="D412" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E412" s="19" t="s">
         <v>1070</v>
@@ -19838,7 +19835,7 @@
         <v>1335</v>
       </c>
       <c r="D413" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E413" s="15" t="s">
         <v>1071</v>
@@ -19868,7 +19865,7 @@
         <v>592</v>
       </c>
       <c r="D414" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>1072</v>
@@ -19900,7 +19897,7 @@
         <v>1337</v>
       </c>
       <c r="D415" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E415" s="16" t="s">
         <v>1073</v>
@@ -19926,7 +19923,7 @@
         <v>394</v>
       </c>
       <c r="D416" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E416" s="19" t="s">
         <v>1074</v>
@@ -19954,7 +19951,7 @@
         <v>1340</v>
       </c>
       <c r="D417" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E417" s="15" t="s">
         <v>1075</v>
@@ -19984,7 +19981,7 @@
         <v>593</v>
       </c>
       <c r="D418" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>1076</v>
@@ -20016,7 +20013,7 @@
         <v>1342</v>
       </c>
       <c r="D419" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E419" s="15" t="s">
         <v>1077</v>
@@ -20046,7 +20043,7 @@
         <v>594</v>
       </c>
       <c r="D420" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>1078</v>
@@ -20078,7 +20075,7 @@
         <v>595</v>
       </c>
       <c r="D421" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>1079</v>
@@ -20110,7 +20107,7 @@
         <v>596</v>
       </c>
       <c r="D422" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>1080</v>
@@ -20142,7 +20139,7 @@
         <v>597</v>
       </c>
       <c r="D423" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>1081</v>
@@ -20174,7 +20171,7 @@
         <v>599</v>
       </c>
       <c r="D424" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>1082</v>
@@ -20206,7 +20203,7 @@
         <v>601</v>
       </c>
       <c r="D425" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>1083</v>
@@ -20238,7 +20235,7 @@
         <v>602</v>
       </c>
       <c r="D426" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>1084</v>
@@ -20270,7 +20267,7 @@
         <v>603</v>
       </c>
       <c r="D427" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>1085</v>
@@ -20302,7 +20299,7 @@
         <v>604</v>
       </c>
       <c r="D428" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>1086</v>
@@ -20334,7 +20331,7 @@
         <v>605</v>
       </c>
       <c r="D429" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>1087</v>
@@ -20366,7 +20363,7 @@
         <v>606</v>
       </c>
       <c r="D430" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>1088</v>
@@ -20398,7 +20395,7 @@
         <v>607</v>
       </c>
       <c r="D431" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>1089</v>
@@ -20430,7 +20427,7 @@
         <v>1353</v>
       </c>
       <c r="D432" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E432" s="15" t="s">
         <v>1090</v>
@@ -20460,7 +20457,7 @@
         <v>608</v>
       </c>
       <c r="D433" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>1091</v>
@@ -20492,7 +20489,7 @@
         <v>609</v>
       </c>
       <c r="D434" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>1092</v>
@@ -20524,7 +20521,7 @@
         <v>397</v>
       </c>
       <c r="D435" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E435" s="19" t="s">
         <v>1093</v>
@@ -20552,7 +20549,7 @@
         <v>1358</v>
       </c>
       <c r="D436" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E436" s="15" t="s">
         <v>1094</v>
@@ -20582,7 +20579,7 @@
         <v>610</v>
       </c>
       <c r="D437" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>1095</v>
@@ -20614,7 +20611,7 @@
         <v>1360</v>
       </c>
       <c r="D438" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E438" s="15" t="s">
         <v>1096</v>
@@ -20644,7 +20641,7 @@
         <v>611</v>
       </c>
       <c r="D439" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>1097</v>
@@ -20676,7 +20673,7 @@
         <v>399</v>
       </c>
       <c r="D440" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E440" s="19" t="s">
         <v>1098</v>
@@ -20704,7 +20701,7 @@
         <v>1363</v>
       </c>
       <c r="D441" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E441" s="15" t="s">
         <v>1099</v>
@@ -20734,7 +20731,7 @@
         <v>612</v>
       </c>
       <c r="D442" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>1100</v>
@@ -20766,7 +20763,7 @@
         <v>413</v>
       </c>
       <c r="D443" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E443" s="19" t="s">
         <v>1101</v>
@@ -20794,7 +20791,7 @@
         <v>1366</v>
       </c>
       <c r="D444" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E444" s="15" t="s">
         <v>1102</v>
@@ -20824,7 +20821,7 @@
         <v>613</v>
       </c>
       <c r="D445" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>1103</v>
@@ -20856,7 +20853,7 @@
         <v>614</v>
       </c>
       <c r="D446" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E446" s="3" t="s">
         <v>1104</v>
@@ -20888,7 +20885,7 @@
         <v>615</v>
       </c>
       <c r="D447" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>1105</v>
@@ -20960,7 +20957,7 @@
         <v>618</v>
       </c>
       <c r="D450" s="3">
-        <v>808158</v>
+        <v>909158</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>1108</v>

--- a/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
+++ b/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D163BBA-8D74-884A-9DA9-2E28E651EB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8401A6B-0012-294F-99EE-43D89D18CD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46820" yWindow="500" windowWidth="16500" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1260" windowWidth="33240" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$M$454</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4049,9 +4049,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>Cuidad personal</t>
-  </si>
-  <si>
     <t>Aparatos eléctricos para el cuidado personal</t>
   </si>
   <si>
@@ -6558,6 +6555,9 @@
   </si>
   <si>
     <t>Azúcar, productos para confitería y postres</t>
+  </si>
+  <si>
+    <t>Cuidado personal</t>
   </si>
 </sst>
 </file>
@@ -7037,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="188" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="188" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7072,19 +7072,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>8</v>
@@ -7127,7 +7127,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>623</v>
@@ -7153,7 +7153,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E4" s="11">
         <v>821910</v>
@@ -7181,7 +7181,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>639</v>
@@ -7211,7 +7211,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>640</v>
@@ -7243,7 +7243,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>641</v>
@@ -7275,7 +7275,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>642</v>
@@ -7307,7 +7307,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>643</v>
@@ -7339,7 +7339,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>644</v>
@@ -7371,7 +7371,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>645</v>
@@ -7403,7 +7403,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>646</v>
@@ -7435,7 +7435,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>647</v>
@@ -7467,7 +7467,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>648</v>
@@ -7499,7 +7499,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>649</v>
@@ -7531,7 +7531,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>650</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>51</v>
@@ -7563,7 +7563,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>651</v>
@@ -7595,7 +7595,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>652</v>
@@ -7627,7 +7627,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>653</v>
@@ -7659,7 +7659,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>654</v>
@@ -7691,7 +7691,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>655</v>
@@ -7723,7 +7723,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>657</v>
@@ -7753,7 +7753,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>658</v>
@@ -7785,7 +7785,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>659</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>73</v>
@@ -7817,7 +7817,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>660</v>
@@ -7849,7 +7849,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>661</v>
@@ -7881,7 +7881,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>662</v>
@@ -7913,7 +7913,7 @@
         <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>663</v>
@@ -7945,7 +7945,7 @@
         <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>664</v>
@@ -7977,7 +7977,7 @@
         <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>665</v>
@@ -8009,7 +8009,7 @@
         <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>666</v>
@@ -8041,7 +8041,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>667</v>
@@ -8071,7 +8071,7 @@
         <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>668</v>
@@ -8103,7 +8103,7 @@
         <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>669</v>
@@ -8135,7 +8135,7 @@
         <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>670</v>
@@ -8167,7 +8167,7 @@
         <v>106</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>671</v>
@@ -8199,7 +8199,7 @@
         <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>673</v>
@@ -8229,7 +8229,7 @@
         <v>109</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>674</v>
@@ -8261,7 +8261,7 @@
         <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>675</v>
@@ -8293,7 +8293,7 @@
         <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>676</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>118</v>
@@ -8325,7 +8325,7 @@
         <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>677</v>
@@ -8357,7 +8357,7 @@
         <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>679</v>
@@ -8389,7 +8389,7 @@
         <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>680</v>
@@ -8421,7 +8421,7 @@
         <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>681</v>
@@ -8453,7 +8453,7 @@
         <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>682</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>132</v>
@@ -8485,7 +8485,7 @@
         <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>683</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>135</v>
@@ -8517,7 +8517,7 @@
         <v>136</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>684</v>
@@ -8549,7 +8549,7 @@
         <v>138</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>685</v>
@@ -8581,7 +8581,7 @@
         <v>140</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>686</v>
@@ -8613,7 +8613,7 @@
         <v>145</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>687</v>
@@ -8637,13 +8637,13 @@
         <v>146</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>688</v>
@@ -8675,7 +8675,7 @@
         <v>148</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>689</v>
@@ -8707,7 +8707,7 @@
         <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>690</v>
@@ -8739,7 +8739,7 @@
         <v>155</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>692</v>
@@ -8763,13 +8763,13 @@
         <v>156</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>693</v>
@@ -8801,7 +8801,7 @@
         <v>158</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>694</v>
@@ -8833,7 +8833,7 @@
         <v>161</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>695</v>
@@ -8865,7 +8865,7 @@
         <v>164</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>696</v>
@@ -8897,7 +8897,7 @@
         <v>167</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>697</v>
@@ -8929,7 +8929,7 @@
         <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E60" t="s">
         <v>698</v>
@@ -8961,7 +8961,7 @@
         <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>699</v>
@@ -8993,7 +8993,7 @@
         <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>700</v>
@@ -9025,7 +9025,7 @@
         <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>701</v>
@@ -9057,7 +9057,7 @@
         <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>702</v>
@@ -9089,7 +9089,7 @@
         <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>703</v>
@@ -9121,7 +9121,7 @@
         <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>704</v>
@@ -9153,7 +9153,7 @@
         <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>705</v>
@@ -9185,7 +9185,7 @@
         <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>706</v>
@@ -9217,7 +9217,7 @@
         <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>707</v>
@@ -9249,7 +9249,7 @@
         <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>709</v>
@@ -9273,13 +9273,13 @@
         <v>202</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>710</v>
@@ -9311,7 +9311,7 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>711</v>
@@ -9343,7 +9343,7 @@
         <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>712</v>
@@ -9375,7 +9375,7 @@
         <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>713</v>
@@ -9407,7 +9407,7 @@
         <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>714</v>
@@ -9439,7 +9439,7 @@
         <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>715</v>
@@ -9471,7 +9471,7 @@
         <v>219</v>
       </c>
       <c r="D77" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>721</v>
@@ -9503,7 +9503,7 @@
         <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>716</v>
@@ -9535,7 +9535,7 @@
         <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>717</v>
@@ -9567,7 +9567,7 @@
         <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>718</v>
@@ -9599,7 +9599,7 @@
         <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E81" s="3">
         <v>822016</v>
@@ -9631,7 +9631,7 @@
         <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>719</v>
@@ -9663,7 +9663,7 @@
         <v>237</v>
       </c>
       <c r="D83" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>720</v>
@@ -9695,7 +9695,7 @@
         <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>722</v>
@@ -9727,7 +9727,7 @@
         <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>723</v>
@@ -9759,7 +9759,7 @@
         <v>246</v>
       </c>
       <c r="D86" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>724</v>
@@ -9791,7 +9791,7 @@
         <v>249</v>
       </c>
       <c r="D87" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>727</v>
@@ -9823,7 +9823,7 @@
         <v>252</v>
       </c>
       <c r="D88" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>725</v>
@@ -9855,7 +9855,7 @@
         <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>726</v>
@@ -9887,7 +9887,7 @@
         <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>728</v>
@@ -9919,7 +9919,7 @@
         <v>261</v>
       </c>
       <c r="D91" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>729</v>
@@ -9951,7 +9951,7 @@
         <v>264</v>
       </c>
       <c r="D92" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>730</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="93" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>267</v>
@@ -9983,7 +9983,7 @@
         <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>731</v>
@@ -10007,13 +10007,13 @@
         <v>269</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>266</v>
       </c>
       <c r="D94" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>732</v>
@@ -10045,7 +10045,7 @@
         <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>733</v>
@@ -10077,7 +10077,7 @@
         <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>734</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>275</v>
@@ -10109,7 +10109,7 @@
         <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>735</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>277</v>
@@ -10141,7 +10141,7 @@
         <v>278</v>
       </c>
       <c r="D98" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>736</v>
@@ -10173,7 +10173,7 @@
         <v>280</v>
       </c>
       <c r="D99" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>738</v>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>281</v>
@@ -10203,7 +10203,7 @@
         <v>282</v>
       </c>
       <c r="D100" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>739</v>
@@ -10235,7 +10235,7 @@
         <v>285</v>
       </c>
       <c r="D101" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>740</v>
@@ -10267,7 +10267,7 @@
         <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>741</v>
@@ -10299,7 +10299,7 @@
         <v>291</v>
       </c>
       <c r="D103" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>743</v>
@@ -10331,7 +10331,7 @@
         <v>294</v>
       </c>
       <c r="D104" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>744</v>
@@ -10363,7 +10363,7 @@
         <v>297</v>
       </c>
       <c r="D105" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>745</v>
@@ -10395,7 +10395,7 @@
         <v>300</v>
       </c>
       <c r="D106" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>746</v>
@@ -10421,13 +10421,13 @@
         <v>295</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>306</v>
       </c>
       <c r="D107" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>747</v>
@@ -10459,7 +10459,7 @@
         <v>52</v>
       </c>
       <c r="D108" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>625</v>
@@ -10487,7 +10487,7 @@
         <v>304</v>
       </c>
       <c r="D109" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>749</v>
@@ -10517,7 +10517,7 @@
         <v>309</v>
       </c>
       <c r="D110" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>750</v>
@@ -10549,7 +10549,7 @@
         <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>752</v>
@@ -10573,13 +10573,13 @@
         <v>305</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>311</v>
       </c>
       <c r="D112" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>753</v>
@@ -10605,13 +10605,13 @@
         <v>307</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>313</v>
       </c>
       <c r="D113" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>754</v>
@@ -10643,7 +10643,7 @@
         <v>762</v>
       </c>
       <c r="D114" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>757</v>
@@ -10667,13 +10667,13 @@
         <v>312</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>758</v>
@@ -10699,13 +10699,13 @@
         <v>417</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>763</v>
       </c>
       <c r="D116" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E116" s="15" t="s">
         <v>759</v>
@@ -10729,13 +10729,13 @@
         <v>316</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D117" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>760</v>
@@ -10761,13 +10761,13 @@
         <v>761</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>764</v>
       </c>
       <c r="D118" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>765</v>
@@ -10791,13 +10791,13 @@
         <v>322</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>321</v>
       </c>
       <c r="D119" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>766</v>
@@ -10823,13 +10823,13 @@
         <v>767</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>768</v>
       </c>
       <c r="D120" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>769</v>
@@ -10853,13 +10853,13 @@
         <v>770</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>323</v>
       </c>
       <c r="D121" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E121" s="4">
         <v>865151</v>
@@ -10885,13 +10885,13 @@
         <v>318</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>329</v>
       </c>
       <c r="D122" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>771</v>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="123" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>324</v>
@@ -10923,7 +10923,7 @@
         <v>324</v>
       </c>
       <c r="D123" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>626</v>
@@ -10949,7 +10949,7 @@
         <v>80</v>
       </c>
       <c r="D124" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>627</v>
@@ -10971,13 +10971,13 @@
         <v>628</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>327</v>
       </c>
       <c r="D125" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>629</v>
@@ -11007,7 +11007,7 @@
         <v>332</v>
       </c>
       <c r="D126" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>772</v>
@@ -11039,7 +11039,7 @@
         <v>335</v>
       </c>
       <c r="D127" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>773</v>
@@ -11071,7 +11071,7 @@
         <v>338</v>
       </c>
       <c r="D128" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>774</v>
@@ -11097,13 +11097,13 @@
         <v>330</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>342</v>
       </c>
       <c r="D129" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>775</v>
@@ -11129,13 +11129,13 @@
         <v>339</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>340</v>
       </c>
       <c r="D130" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>630</v>
@@ -11159,13 +11159,13 @@
         <v>341</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D131" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>776</v>
@@ -11191,13 +11191,13 @@
         <v>343</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>344</v>
       </c>
       <c r="D132" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E132" s="15" t="s">
         <v>631</v>
@@ -11221,13 +11221,13 @@
         <v>343</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D133" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>777</v>
@@ -11253,13 +11253,13 @@
         <v>346</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C134" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D134" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>632</v>
@@ -11281,13 +11281,13 @@
         <v>346</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>778</v>
       </c>
       <c r="D135" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E135" s="15" t="s">
         <v>779</v>
@@ -11311,13 +11311,13 @@
         <v>347</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>353</v>
       </c>
       <c r="D136" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>780</v>
@@ -11349,7 +11349,7 @@
         <v>349</v>
       </c>
       <c r="D137" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>634</v>
@@ -11369,13 +11369,13 @@
         <v>781</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D138" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>782</v>
@@ -11397,13 +11397,13 @@
         <v>350</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>351</v>
       </c>
       <c r="D139" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E139" s="15" t="s">
         <v>783</v>
@@ -11427,13 +11427,13 @@
         <v>352</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>354</v>
       </c>
       <c r="D140" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>784</v>
@@ -11456,16 +11456,16 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>785</v>
@@ -11491,13 +11491,13 @@
         <v>355</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D142" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>786</v>
@@ -11523,13 +11523,13 @@
         <v>357</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>360</v>
       </c>
       <c r="D143" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>787</v>
@@ -11555,13 +11555,13 @@
         <v>359</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>362</v>
       </c>
       <c r="D144" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>788</v>
@@ -11587,13 +11587,13 @@
         <v>361</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>363</v>
       </c>
       <c r="D145" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>789</v>
@@ -11619,13 +11619,13 @@
         <v>368</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>365</v>
       </c>
       <c r="D146" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>790</v>
@@ -11651,13 +11651,13 @@
         <v>370</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>791</v>
@@ -11683,13 +11683,13 @@
         <v>372</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>369</v>
       </c>
       <c r="D148" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>792</v>
@@ -11715,13 +11715,13 @@
         <v>374</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D149" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>793</v>
@@ -11747,13 +11747,13 @@
         <v>376</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>373</v>
       </c>
       <c r="D150" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>794</v>
@@ -11779,13 +11779,13 @@
         <v>379</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>375</v>
       </c>
       <c r="D151" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>795</v>
@@ -11811,13 +11811,13 @@
         <v>796</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>377</v>
       </c>
       <c r="D152" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>797</v>
@@ -11843,13 +11843,13 @@
         <v>381</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>378</v>
       </c>
       <c r="D153" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>798</v>
@@ -11875,13 +11875,13 @@
         <v>383</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>380</v>
       </c>
       <c r="D154" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>799</v>
@@ -11907,13 +11907,13 @@
         <v>385</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>382</v>
       </c>
       <c r="D155" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>800</v>
@@ -11939,13 +11939,13 @@
         <v>387</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>384</v>
       </c>
       <c r="D156" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>801</v>
@@ -11968,16 +11968,16 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E157" s="4">
         <v>865187</v>
@@ -12003,13 +12003,13 @@
         <v>364</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>388</v>
       </c>
       <c r="D158" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>802</v>
@@ -12035,13 +12035,13 @@
         <v>366</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>389</v>
       </c>
       <c r="D159" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>803</v>
@@ -12067,13 +12067,13 @@
         <v>804</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>805</v>
       </c>
       <c r="D160" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E160" s="15" t="s">
         <v>806</v>
@@ -12097,13 +12097,13 @@
         <v>807</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D161" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>808</v>
@@ -12126,16 +12126,16 @@
     </row>
     <row r="162" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>390</v>
       </c>
       <c r="D162" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E162" s="15" t="s">
         <v>809</v>
@@ -12159,13 +12159,13 @@
         <v>391</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>394</v>
       </c>
       <c r="D163" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>810</v>
@@ -12191,13 +12191,13 @@
         <v>393</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D164" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>811</v>
@@ -12223,13 +12223,13 @@
         <v>395</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D165" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E165" s="19" t="s">
         <v>812</v>
@@ -12251,13 +12251,13 @@
         <v>813</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E166" s="15" t="s">
         <v>814</v>
@@ -12281,13 +12281,13 @@
         <v>815</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>399</v>
       </c>
       <c r="D167" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>816</v>
@@ -12313,13 +12313,13 @@
         <v>398</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>401</v>
       </c>
       <c r="D168" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>817</v>
@@ -12345,13 +12345,13 @@
         <v>400</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>403</v>
       </c>
       <c r="D169" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>818</v>
@@ -12377,13 +12377,13 @@
         <v>402</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>405</v>
       </c>
       <c r="D170" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>819</v>
@@ -12409,13 +12409,13 @@
         <v>404</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>406</v>
       </c>
       <c r="D171" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>820</v>
@@ -12438,7 +12438,7 @@
     </row>
     <row r="172" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>407</v>
@@ -12447,7 +12447,7 @@
         <v>407</v>
       </c>
       <c r="D172" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>635</v>
@@ -12467,13 +12467,13 @@
         <v>821</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D173" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E173" s="19" t="s">
         <v>822</v>
@@ -12495,13 +12495,13 @@
         <v>823</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>409</v>
       </c>
       <c r="D174" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E174" s="15" t="s">
         <v>824</v>
@@ -12525,13 +12525,13 @@
         <v>408</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>410</v>
       </c>
       <c r="D175" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>825</v>
@@ -12557,13 +12557,13 @@
         <v>826</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>142</v>
       </c>
       <c r="D176" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="E176" s="19" t="s">
         <v>827</v>
@@ -12585,13 +12585,13 @@
         <v>828</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>412</v>
       </c>
       <c r="D177" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E177" s="15" t="s">
         <v>829</v>
@@ -12615,13 +12615,13 @@
         <v>411</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>413</v>
       </c>
       <c r="D178" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>830</v>
@@ -12647,13 +12647,13 @@
         <v>831</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D179" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E179" s="19" t="s">
         <v>832</v>
@@ -12675,13 +12675,13 @@
         <v>833</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>414</v>
       </c>
       <c r="D180" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E180" s="15" t="s">
         <v>834</v>
@@ -12705,13 +12705,13 @@
         <v>415</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E181" s="4">
         <v>865211</v>
@@ -12734,16 +12734,16 @@
     </row>
     <row r="182" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>837</v>
       </c>
       <c r="D182" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E182" s="15" t="s">
         <v>836</v>
@@ -12767,13 +12767,13 @@
         <v>835</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>419</v>
       </c>
       <c r="D183" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>838</v>
@@ -12799,13 +12799,13 @@
         <v>839</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D184" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E184" s="19" t="s">
         <v>840</v>
@@ -12827,13 +12827,13 @@
         <v>841</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>418</v>
       </c>
       <c r="D185" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E185" s="15" t="s">
         <v>842</v>
@@ -12857,13 +12857,13 @@
         <v>843</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>421</v>
       </c>
       <c r="D186" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>844</v>
@@ -12889,13 +12889,13 @@
         <v>845</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D187" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E187" s="15" t="s">
         <v>846</v>
@@ -12919,13 +12919,13 @@
         <v>845</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>423</v>
       </c>
       <c r="D188" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>847</v>
@@ -12951,13 +12951,13 @@
         <v>1112</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>153</v>
       </c>
       <c r="D189" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E189" s="19" t="s">
         <v>848</v>
@@ -12979,13 +12979,13 @@
         <v>1113</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>422</v>
       </c>
       <c r="D190" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E190" s="15" t="s">
         <v>849</v>
@@ -13009,13 +13009,13 @@
         <v>1113</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>425</v>
       </c>
       <c r="D191" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>850</v>
@@ -13041,13 +13041,13 @@
         <v>1114</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>424</v>
       </c>
       <c r="D192" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E192" s="15" t="s">
         <v>851</v>
@@ -13071,13 +13071,13 @@
         <v>1115</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>426</v>
       </c>
       <c r="D193" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>852</v>
@@ -13103,13 +13103,13 @@
         <v>1116</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>429</v>
       </c>
       <c r="D194" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>853</v>
@@ -13132,7 +13132,7 @@
     </row>
     <row r="195" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>427</v>
@@ -13141,7 +13141,7 @@
         <v>427</v>
       </c>
       <c r="D195" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>636</v>
@@ -13161,13 +13161,13 @@
         <v>1117</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C196" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D196" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E196" s="19" t="s">
         <v>854</v>
@@ -13189,13 +13189,13 @@
         <v>1117</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>428</v>
       </c>
       <c r="D197" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E197" s="15" t="s">
         <v>855</v>
@@ -13219,13 +13219,13 @@
         <v>1118</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>430</v>
       </c>
       <c r="D198" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>856</v>
@@ -13251,13 +13251,13 @@
         <v>1119</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>431</v>
       </c>
       <c r="D199" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>857</v>
@@ -13283,13 +13283,13 @@
         <v>1120</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>432</v>
       </c>
       <c r="D200" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>858</v>
@@ -13315,13 +13315,13 @@
         <v>1121</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>433</v>
       </c>
       <c r="D201" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>859</v>
@@ -13347,13 +13347,13 @@
         <v>1122</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>434</v>
       </c>
       <c r="D202" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>860</v>
@@ -13379,13 +13379,13 @@
         <v>1123</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>435</v>
       </c>
       <c r="D203" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>861</v>
@@ -13411,13 +13411,13 @@
         <v>1124</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C204" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D204" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E204" s="19" t="s">
         <v>862</v>
@@ -13439,13 +13439,13 @@
         <v>1124</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>1125</v>
       </c>
       <c r="D205" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E205" s="15" t="s">
         <v>863</v>
@@ -13469,13 +13469,13 @@
         <v>1126</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>436</v>
       </c>
       <c r="D206" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>864</v>
@@ -13501,13 +13501,13 @@
         <v>1127</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>437</v>
       </c>
       <c r="D207" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>865</v>
@@ -13530,16 +13530,16 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>438</v>
       </c>
       <c r="D208" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>866</v>
@@ -13565,13 +13565,13 @@
         <v>1128</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>179</v>
       </c>
       <c r="D209" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E209" s="19" t="s">
         <v>867</v>
@@ -13593,13 +13593,13 @@
         <v>1129</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>442</v>
       </c>
       <c r="D210" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E210" s="15" t="s">
         <v>868</v>
@@ -13623,13 +13623,13 @@
         <v>1130</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>439</v>
       </c>
       <c r="D211" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>869</v>
@@ -13655,13 +13655,13 @@
         <v>1131</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>440</v>
       </c>
       <c r="D212" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>870</v>
@@ -13687,13 +13687,13 @@
         <v>1132</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>441</v>
       </c>
       <c r="D213" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>871</v>
@@ -13719,13 +13719,13 @@
         <v>1133</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>443</v>
       </c>
       <c r="D214" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>872</v>
@@ -13751,13 +13751,13 @@
         <v>1134</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>444</v>
       </c>
       <c r="D215" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>873</v>
@@ -13783,13 +13783,13 @@
         <v>1135</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>445</v>
       </c>
       <c r="D216" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>874</v>
@@ -13815,13 +13815,13 @@
         <v>1136</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>449</v>
       </c>
       <c r="D217" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E217" s="15" t="s">
         <v>875</v>
@@ -13842,16 +13842,16 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>446</v>
       </c>
       <c r="D218" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>876</v>
@@ -13877,13 +13877,13 @@
         <v>1137</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>447</v>
       </c>
       <c r="D219" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>877</v>
@@ -13909,13 +13909,13 @@
         <v>1138</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>448</v>
       </c>
       <c r="D220" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>878</v>
@@ -13941,13 +13941,13 @@
         <v>1139</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C221" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D221" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E221" s="19" t="s">
         <v>879</v>
@@ -13969,13 +13969,13 @@
         <v>1139</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>453</v>
       </c>
       <c r="D222" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E222" s="15" t="s">
         <v>880</v>
@@ -13999,13 +13999,13 @@
         <v>1140</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>450</v>
       </c>
       <c r="D223" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>881</v>
@@ -14031,13 +14031,13 @@
         <v>1141</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>451</v>
       </c>
       <c r="D224" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>882</v>
@@ -14060,16 +14060,16 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>452</v>
       </c>
       <c r="D225" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>883</v>
@@ -14095,13 +14095,13 @@
         <v>1142</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>454</v>
       </c>
       <c r="D226" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>884</v>
@@ -14127,13 +14127,13 @@
         <v>1143</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>185</v>
       </c>
       <c r="D227" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E227" s="19" t="s">
         <v>885</v>
@@ -14155,13 +14155,13 @@
         <v>1144</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>460</v>
       </c>
       <c r="D228" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E228" s="15" t="s">
         <v>886</v>
@@ -14185,13 +14185,13 @@
         <v>1145</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>455</v>
       </c>
       <c r="D229" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>887</v>
@@ -14217,13 +14217,13 @@
         <v>1146</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D230" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>888</v>
@@ -14249,13 +14249,13 @@
         <v>1147</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>457</v>
       </c>
       <c r="D231" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>889</v>
@@ -14281,13 +14281,13 @@
         <v>1148</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>188</v>
       </c>
       <c r="D232" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E232" s="19" t="s">
         <v>890</v>
@@ -14309,13 +14309,13 @@
         <v>1149</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>464</v>
       </c>
       <c r="D233" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E233" s="15" t="s">
         <v>891</v>
@@ -14339,13 +14339,13 @@
         <v>1150</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>458</v>
       </c>
       <c r="D234" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>892</v>
@@ -14371,13 +14371,13 @@
         <v>1151</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D235" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>893</v>
@@ -14403,13 +14403,13 @@
         <v>1152</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>461</v>
       </c>
       <c r="D236" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>894</v>
@@ -14435,13 +14435,13 @@
         <v>1153</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>462</v>
       </c>
       <c r="D237" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>895</v>
@@ -14467,13 +14467,13 @@
         <v>1154</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>463</v>
       </c>
       <c r="D238" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>896</v>
@@ -14499,13 +14499,13 @@
         <v>1155</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>465</v>
       </c>
       <c r="D239" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>897</v>
@@ -14531,13 +14531,13 @@
         <v>1156</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>466</v>
       </c>
       <c r="D240" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>898</v>
@@ -14563,13 +14563,13 @@
         <v>1157</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>467</v>
       </c>
       <c r="D241" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>899</v>
@@ -14595,13 +14595,13 @@
         <v>1158</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>468</v>
       </c>
       <c r="D242" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>900</v>
@@ -14627,13 +14627,13 @@
         <v>1159</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>469</v>
       </c>
       <c r="D243" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>901</v>
@@ -14659,13 +14659,13 @@
         <v>1160</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>470</v>
       </c>
       <c r="D244" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>902</v>
@@ -14691,13 +14691,13 @@
         <v>1161</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>476</v>
       </c>
       <c r="D245" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E245" s="15" t="s">
         <v>903</v>
@@ -14721,13 +14721,13 @@
         <v>1162</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>471</v>
       </c>
       <c r="D246" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>904</v>
@@ -14759,7 +14759,7 @@
         <v>478</v>
       </c>
       <c r="D247" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E247" s="16" t="s">
         <v>637</v>
@@ -14779,13 +14779,13 @@
         <v>1164</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>204</v>
       </c>
       <c r="D248" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E248" s="19" t="s">
         <v>905</v>
@@ -14807,13 +14807,13 @@
         <v>1165</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>479</v>
       </c>
       <c r="D249" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E249" s="15" t="s">
         <v>906</v>
@@ -14837,13 +14837,13 @@
         <v>1166</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>472</v>
       </c>
       <c r="D250" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>907</v>
@@ -14869,13 +14869,13 @@
         <v>1167</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>473</v>
       </c>
       <c r="D251" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>908</v>
@@ -14901,13 +14901,13 @@
         <v>1168</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>474</v>
       </c>
       <c r="D252" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>909</v>
@@ -14933,13 +14933,13 @@
         <v>1169</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>475</v>
       </c>
       <c r="D253" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>910</v>
@@ -14965,13 +14965,13 @@
         <v>1170</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>477</v>
       </c>
       <c r="D254" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>911</v>
@@ -14997,13 +14997,13 @@
         <v>1171</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>480</v>
       </c>
       <c r="D255" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>912</v>
@@ -15029,13 +15029,13 @@
         <v>1172</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>481</v>
       </c>
       <c r="D256" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>913</v>
@@ -15061,13 +15061,13 @@
         <v>1173</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>482</v>
       </c>
       <c r="D257" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>914</v>
@@ -15093,13 +15093,13 @@
         <v>1174</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>483</v>
       </c>
       <c r="D258" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>915</v>
@@ -15125,13 +15125,13 @@
         <v>1175</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>484</v>
       </c>
       <c r="D259" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>916</v>
@@ -15157,13 +15157,13 @@
         <v>1176</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>485</v>
       </c>
       <c r="D260" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>917</v>
@@ -15189,13 +15189,13 @@
         <v>1177</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>486</v>
       </c>
       <c r="D261" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>918</v>
@@ -15221,13 +15221,13 @@
         <v>1178</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>487</v>
       </c>
       <c r="D262" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>919</v>
@@ -15253,13 +15253,13 @@
         <v>1179</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>493</v>
       </c>
       <c r="D263" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E263" s="15" t="s">
         <v>920</v>
@@ -15283,13 +15283,13 @@
         <v>1180</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>488</v>
       </c>
       <c r="D264" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>921</v>
@@ -15315,13 +15315,13 @@
         <v>1181</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>495</v>
       </c>
       <c r="D265" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E265" s="15" t="s">
         <v>922</v>
@@ -15342,16 +15342,16 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>489</v>
       </c>
       <c r="D266" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>923</v>
@@ -15377,13 +15377,13 @@
         <v>1182</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D267" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E267" s="19" t="s">
         <v>924</v>
@@ -15405,13 +15405,13 @@
         <v>1183</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>497</v>
       </c>
       <c r="D268" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E268" s="15" t="s">
         <v>925</v>
@@ -15435,13 +15435,13 @@
         <v>1184</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>490</v>
       </c>
       <c r="D269" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>926</v>
@@ -15467,13 +15467,13 @@
         <v>1185</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>499</v>
       </c>
       <c r="D270" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E270" s="15" t="s">
         <v>927</v>
@@ -15497,13 +15497,13 @@
         <v>1186</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>491</v>
       </c>
       <c r="D271" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>928</v>
@@ -15529,13 +15529,13 @@
         <v>1187</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C272" s="18" t="s">
         <v>210</v>
       </c>
       <c r="D272" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E272" s="19" t="s">
         <v>929</v>
@@ -15557,13 +15557,13 @@
         <v>1188</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C273" s="13" t="s">
         <v>1189</v>
       </c>
       <c r="D273" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E273" s="15" t="s">
         <v>930</v>
@@ -15587,13 +15587,13 @@
         <v>1190</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>492</v>
       </c>
       <c r="D274" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>931</v>
@@ -15619,13 +15619,13 @@
         <v>1191</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>494</v>
       </c>
       <c r="D275" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>932</v>
@@ -15651,13 +15651,13 @@
         <v>1192</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>496</v>
       </c>
       <c r="D276" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>933</v>
@@ -15683,13 +15683,13 @@
         <v>1193</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>498</v>
       </c>
       <c r="D277" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>934</v>
@@ -15715,13 +15715,13 @@
         <v>1194</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C278" s="18" t="s">
         <v>213</v>
       </c>
       <c r="D278" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E278" s="19" t="s">
         <v>935</v>
@@ -15743,13 +15743,13 @@
         <v>1195</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>1196</v>
       </c>
       <c r="D279" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E279" s="15" t="s">
         <v>936</v>
@@ -15773,13 +15773,13 @@
         <v>1197</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>500</v>
       </c>
       <c r="D280" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>937</v>
@@ -15811,7 +15811,7 @@
         <v>506</v>
       </c>
       <c r="D281" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E281" s="16" t="s">
         <v>938</v>
@@ -15831,13 +15831,13 @@
         <v>1199</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C282" s="18" t="s">
         <v>234</v>
       </c>
       <c r="D282" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E282" s="19" t="s">
         <v>939</v>
@@ -15859,13 +15859,13 @@
         <v>1200</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>507</v>
       </c>
       <c r="D283" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E283" s="15" t="s">
         <v>940</v>
@@ -15889,13 +15889,13 @@
         <v>1200</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>501</v>
       </c>
       <c r="D284" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>941</v>
@@ -15921,13 +15921,13 @@
         <v>1201</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>509</v>
       </c>
       <c r="D285" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E285" s="15" t="s">
         <v>942</v>
@@ -15951,13 +15951,13 @@
         <v>1201</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>502</v>
       </c>
       <c r="D286" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>943</v>
@@ -15983,13 +15983,13 @@
         <v>1202</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>511</v>
       </c>
       <c r="D287" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E287" s="15" t="s">
         <v>944</v>
@@ -16013,13 +16013,13 @@
         <v>1202</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>503</v>
       </c>
       <c r="D288" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>945</v>
@@ -16045,13 +16045,13 @@
         <v>1203</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D289" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E289" s="19" t="s">
         <v>946</v>
@@ -16073,13 +16073,13 @@
         <v>1204</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>513</v>
       </c>
       <c r="D290" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E290" s="15" t="s">
         <v>947</v>
@@ -16103,13 +16103,13 @@
         <v>1205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>504</v>
       </c>
       <c r="D291" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>948</v>
@@ -16135,13 +16135,13 @@
         <v>1206</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>505</v>
       </c>
       <c r="D292" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>949</v>
@@ -16164,16 +16164,16 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>508</v>
       </c>
       <c r="D293" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>950</v>
@@ -16199,13 +16199,13 @@
         <v>1207</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C294" s="13" t="s">
         <v>517</v>
       </c>
       <c r="D294" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E294" s="15" t="s">
         <v>951</v>
@@ -16229,13 +16229,13 @@
         <v>1208</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>510</v>
       </c>
       <c r="D295" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>952</v>
@@ -16261,13 +16261,13 @@
         <v>1209</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>512</v>
       </c>
       <c r="D296" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>953</v>
@@ -16293,13 +16293,13 @@
         <v>1210</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>514</v>
       </c>
       <c r="D297" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>954</v>
@@ -16325,13 +16325,13 @@
         <v>1211</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>521</v>
       </c>
       <c r="D298" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E298" s="15" t="s">
         <v>955</v>
@@ -16355,13 +16355,13 @@
         <v>1212</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>515</v>
       </c>
       <c r="D299" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>956</v>
@@ -16387,13 +16387,13 @@
         <v>1213</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>516</v>
       </c>
       <c r="D300" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>957</v>
@@ -16419,13 +16419,13 @@
         <v>1214</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>518</v>
       </c>
       <c r="D301" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>958</v>
@@ -16451,13 +16451,13 @@
         <v>1215</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>525</v>
       </c>
       <c r="D302" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E302" s="15" t="s">
         <v>959</v>
@@ -16481,13 +16481,13 @@
         <v>1216</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>519</v>
       </c>
       <c r="D303" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>960</v>
@@ -16513,13 +16513,13 @@
         <v>1217</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>520</v>
       </c>
       <c r="D304" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>961</v>
@@ -16545,13 +16545,13 @@
         <v>1218</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>522</v>
       </c>
       <c r="D305" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>962</v>
@@ -16577,13 +16577,13 @@
         <v>1219</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>240</v>
       </c>
       <c r="D306" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E306" s="19" t="s">
         <v>963</v>
@@ -16605,13 +16605,13 @@
         <v>1220</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>529</v>
       </c>
       <c r="D307" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E307" s="15" t="s">
         <v>964</v>
@@ -16635,13 +16635,13 @@
         <v>1221</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>523</v>
       </c>
       <c r="D308" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>965</v>
@@ -16667,13 +16667,13 @@
         <v>1222</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>531</v>
       </c>
       <c r="D309" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E309" s="15" t="s">
         <v>966</v>
@@ -16697,13 +16697,13 @@
         <v>1223</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>524</v>
       </c>
       <c r="D310" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>967</v>
@@ -16729,13 +16729,13 @@
         <v>1224</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>526</v>
       </c>
       <c r="D311" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>968</v>
@@ -16761,13 +16761,13 @@
         <v>1225</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>527</v>
       </c>
       <c r="D312" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>969</v>
@@ -16793,13 +16793,13 @@
         <v>1226</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>528</v>
       </c>
       <c r="D313" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>970</v>
@@ -16825,13 +16825,13 @@
         <v>1227</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>530</v>
       </c>
       <c r="D314" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>971</v>
@@ -16857,13 +16857,13 @@
         <v>1228</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>537</v>
       </c>
       <c r="D315" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E315" s="15" t="s">
         <v>972</v>
@@ -16887,13 +16887,13 @@
         <v>1229</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>532</v>
       </c>
       <c r="D316" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>973</v>
@@ -16925,7 +16925,7 @@
         <v>539</v>
       </c>
       <c r="D317" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E317" s="16" t="s">
         <v>974</v>
@@ -16945,13 +16945,13 @@
         <v>1231</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C318" s="18" t="s">
         <v>264</v>
       </c>
       <c r="D318" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E318" s="19" t="s">
         <v>975</v>
@@ -16973,13 +16973,13 @@
         <v>1232</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>1233</v>
       </c>
       <c r="D319" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E319" s="15" t="s">
         <v>976</v>
@@ -17003,13 +17003,13 @@
         <v>1234</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>533</v>
       </c>
       <c r="D320" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>977</v>
@@ -17035,13 +17035,13 @@
         <v>1235</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>1236</v>
       </c>
       <c r="D321" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E321" s="15" t="s">
         <v>978</v>
@@ -17065,13 +17065,13 @@
         <v>1237</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>534</v>
       </c>
       <c r="D322" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>979</v>
@@ -17097,13 +17097,13 @@
         <v>1238</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>1239</v>
       </c>
       <c r="D323" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E323" s="15" t="s">
         <v>980</v>
@@ -17124,16 +17124,16 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>535</v>
       </c>
       <c r="D324" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>981</v>
@@ -17159,13 +17159,13 @@
         <v>1240</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>536</v>
       </c>
       <c r="D325" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>982</v>
@@ -17191,13 +17191,13 @@
         <v>1241</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>271</v>
       </c>
       <c r="D326" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E326" s="19" t="s">
         <v>983</v>
@@ -17219,13 +17219,13 @@
         <v>1242</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>1243</v>
       </c>
       <c r="D327" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E327" s="15" t="s">
         <v>984</v>
@@ -17249,13 +17249,13 @@
         <v>1244</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>538</v>
       </c>
       <c r="D328" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>985</v>
@@ -17281,13 +17281,13 @@
         <v>1245</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>1246</v>
       </c>
       <c r="D329" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E329" s="15" t="s">
         <v>986</v>
@@ -17311,13 +17311,13 @@
         <v>1247</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>540</v>
       </c>
       <c r="D330" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>987</v>
@@ -17343,13 +17343,13 @@
         <v>1248</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>1249</v>
       </c>
       <c r="D331" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E331" s="15" t="s">
         <v>988</v>
@@ -17373,13 +17373,13 @@
         <v>1250</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>541</v>
       </c>
       <c r="D332" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>989</v>
@@ -17405,13 +17405,13 @@
         <v>1251</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>1252</v>
       </c>
       <c r="D333" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E333" s="15" t="s">
         <v>990</v>
@@ -17435,13 +17435,13 @@
         <v>1253</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>542</v>
       </c>
       <c r="D334" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>991</v>
@@ -17467,13 +17467,13 @@
         <v>1254</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>1255</v>
       </c>
       <c r="D335" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E335" s="15" t="s">
         <v>992</v>
@@ -17497,13 +17497,13 @@
         <v>1256</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>543</v>
       </c>
       <c r="D336" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>993</v>
@@ -17529,13 +17529,13 @@
         <v>1257</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>544</v>
       </c>
       <c r="D337" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>994</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="338" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>546</v>
@@ -17567,7 +17567,7 @@
         <v>546</v>
       </c>
       <c r="D338" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E338" s="16" t="s">
         <v>995</v>
@@ -17587,13 +17587,13 @@
         <v>1258</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>294</v>
       </c>
       <c r="D339" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E339" s="19" t="s">
         <v>996</v>
@@ -17615,13 +17615,13 @@
         <v>1259</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>547</v>
       </c>
       <c r="D340" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E340" s="15" t="s">
         <v>997</v>
@@ -17645,13 +17645,13 @@
         <v>1260</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>545</v>
       </c>
       <c r="D341" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>998</v>
@@ -17677,13 +17677,13 @@
         <v>1261</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C342" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D342" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E342" s="19" t="s">
         <v>999</v>
@@ -17705,13 +17705,13 @@
         <v>1262</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>1263</v>
       </c>
       <c r="D343" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E343" s="15" t="s">
         <v>1000</v>
@@ -17732,16 +17732,16 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>548</v>
       </c>
       <c r="D344" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>1001</v>
@@ -17767,13 +17767,13 @@
         <v>1264</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>549</v>
       </c>
       <c r="D345" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>1002</v>
@@ -17799,13 +17799,13 @@
         <v>1265</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>554</v>
       </c>
       <c r="D346" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E346" s="15" t="s">
         <v>1003</v>
@@ -17829,13 +17829,13 @@
         <v>1266</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>550</v>
       </c>
       <c r="D347" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>1004</v>
@@ -17861,13 +17861,13 @@
         <v>1267</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C348" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D348" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E348" s="19" t="s">
         <v>1005</v>
@@ -17889,13 +17889,13 @@
         <v>1268</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>556</v>
       </c>
       <c r="D349" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E349" s="15" t="s">
         <v>1006</v>
@@ -17919,13 +17919,13 @@
         <v>1269</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>551</v>
       </c>
       <c r="D350" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E350" s="3" t="s">
         <v>1007</v>
@@ -17951,13 +17951,13 @@
         <v>1270</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>559</v>
       </c>
       <c r="D351" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E351" s="15" t="s">
         <v>1008</v>
@@ -17981,13 +17981,13 @@
         <v>1271</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>552</v>
       </c>
       <c r="D352" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>1009</v>
@@ -18013,7 +18013,7 @@
         <v>1273</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>1274</v>
@@ -18043,13 +18043,13 @@
         <v>1275</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>553</v>
       </c>
       <c r="D354" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E354" s="3" t="s">
         <v>1012</v>
@@ -18075,7 +18075,7 @@
         <v>1272</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C355" s="18" t="s">
         <v>306</v>
@@ -18103,13 +18103,13 @@
         <v>1276</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>1277</v>
       </c>
       <c r="D356" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E356" s="15" t="s">
         <v>1013</v>
@@ -18133,13 +18133,13 @@
         <v>1278</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>555</v>
       </c>
       <c r="D357" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>1014</v>
@@ -18165,13 +18165,13 @@
         <v>1279</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>557</v>
       </c>
       <c r="D358" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>1015</v>
@@ -18197,13 +18197,13 @@
         <v>1280</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>309</v>
       </c>
       <c r="D359" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E359" s="19" t="s">
         <v>1016</v>
@@ -18225,13 +18225,13 @@
         <v>1281</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C360" s="13" t="s">
         <v>568</v>
       </c>
       <c r="D360" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E360" s="15" t="s">
         <v>1017</v>
@@ -18255,7 +18255,7 @@
         <v>1282</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>558</v>
@@ -18287,13 +18287,13 @@
         <v>1283</v>
       </c>
       <c r="B362" s="18" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C362" s="18" t="s">
         <v>311</v>
       </c>
       <c r="D362" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E362" s="19" t="s">
         <v>1019</v>
@@ -18315,13 +18315,13 @@
         <v>1284</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C363" s="13" t="s">
         <v>1285</v>
       </c>
       <c r="D363" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>1020</v>
@@ -18345,13 +18345,13 @@
         <v>1286</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>560</v>
       </c>
       <c r="D364" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>1021</v>
@@ -18377,13 +18377,13 @@
         <v>1287</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C365" s="13" t="s">
         <v>1288</v>
       </c>
       <c r="D365" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>1022</v>
@@ -18407,13 +18407,13 @@
         <v>1289</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>561</v>
       </c>
       <c r="D366" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>1023</v>
@@ -18439,13 +18439,13 @@
         <v>1290</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C367" s="13" t="s">
         <v>1291</v>
       </c>
       <c r="D367" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>1024</v>
@@ -18469,13 +18469,13 @@
         <v>1292</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>562</v>
       </c>
       <c r="D368" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>1025</v>
@@ -18501,13 +18501,13 @@
         <v>1293</v>
       </c>
       <c r="B369" s="18" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C369" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D369" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E369" s="19" t="s">
         <v>1026</v>
@@ -18529,13 +18529,13 @@
         <v>1294</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C370" s="13" t="s">
         <v>1295</v>
       </c>
       <c r="D370" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E370" s="15" t="s">
         <v>1027</v>
@@ -18559,13 +18559,13 @@
         <v>1296</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>563</v>
       </c>
       <c r="D371" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>1028</v>
@@ -18591,13 +18591,13 @@
         <v>1297</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>564</v>
       </c>
       <c r="D372" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>1029</v>
@@ -18623,13 +18623,13 @@
         <v>1298</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C373" s="13" t="s">
         <v>1299</v>
       </c>
       <c r="D373" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E373" s="15" t="s">
         <v>1030</v>
@@ -18653,13 +18653,13 @@
         <v>1300</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>565</v>
       </c>
       <c r="D374" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>1031</v>
@@ -18685,13 +18685,13 @@
         <v>1301</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C375" s="13" t="s">
         <v>1302</v>
       </c>
       <c r="D375" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E375" s="15" t="s">
         <v>1032</v>
@@ -18715,13 +18715,13 @@
         <v>1303</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>566</v>
       </c>
       <c r="D376" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>1033</v>
@@ -18747,13 +18747,13 @@
         <v>1304</v>
       </c>
       <c r="B377" s="18" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C377" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D377" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E377" s="19" t="s">
         <v>1034</v>
@@ -18775,13 +18775,13 @@
         <v>1304</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C378" s="13" t="s">
         <v>1305</v>
       </c>
       <c r="D378" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E378" s="15" t="s">
         <v>1035</v>
@@ -18805,13 +18805,13 @@
         <v>1306</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>567</v>
       </c>
       <c r="D379" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>1036</v>
@@ -18843,7 +18843,7 @@
         <v>575</v>
       </c>
       <c r="D380" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E380" s="16" t="s">
         <v>1037</v>
@@ -18863,13 +18863,13 @@
         <v>1308</v>
       </c>
       <c r="B381" s="18" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C381" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D381" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E381" s="19" t="s">
         <v>1038</v>
@@ -18891,13 +18891,13 @@
         <v>1308</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C382" s="13" t="s">
         <v>576</v>
       </c>
       <c r="D382" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E382" s="15" t="s">
         <v>1039</v>
@@ -18921,13 +18921,13 @@
         <v>1309</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>569</v>
       </c>
       <c r="D383" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>1040</v>
@@ -18953,13 +18953,13 @@
         <v>1310</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>570</v>
       </c>
       <c r="D384" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>1041</v>
@@ -18985,13 +18985,13 @@
         <v>1311</v>
       </c>
       <c r="B385" s="18" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C385" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D385" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E385" s="19" t="s">
         <v>1042</v>
@@ -19013,13 +19013,13 @@
         <v>1311</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C386" s="13" t="s">
         <v>579</v>
       </c>
       <c r="D386" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E386" s="15" t="s">
         <v>1043</v>
@@ -19043,13 +19043,13 @@
         <v>1312</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>571</v>
       </c>
       <c r="D387" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>1044</v>
@@ -19075,13 +19075,13 @@
         <v>1313</v>
       </c>
       <c r="B388" s="18" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C388" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D388" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E388" s="19" t="s">
         <v>1045</v>
@@ -19103,13 +19103,13 @@
         <v>1313</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C389" s="13" t="s">
         <v>581</v>
       </c>
       <c r="D389" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E389" s="15" t="s">
         <v>1046</v>
@@ -19133,13 +19133,13 @@
         <v>1314</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>572</v>
       </c>
       <c r="D390" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>1047</v>
@@ -19165,13 +19165,13 @@
         <v>1315</v>
       </c>
       <c r="B391" s="18" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C391" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D391" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E391" s="19" t="s">
         <v>1048</v>
@@ -19193,13 +19193,13 @@
         <v>1315</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C392" s="13" t="s">
         <v>583</v>
       </c>
       <c r="D392" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E392" s="15" t="s">
         <v>1049</v>
@@ -19223,13 +19223,13 @@
         <v>1316</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>573</v>
       </c>
       <c r="D393" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>1050</v>
@@ -19255,13 +19255,13 @@
         <v>1317</v>
       </c>
       <c r="B394" s="18" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C394" s="18" t="s">
         <v>338</v>
       </c>
       <c r="D394" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E394" s="19" t="s">
         <v>1051</v>
@@ -19283,13 +19283,13 @@
         <v>1317</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C395" s="13" t="s">
         <v>585</v>
       </c>
       <c r="D395" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E395" s="15" t="s">
         <v>1052</v>
@@ -19313,13 +19313,13 @@
         <v>1318</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>574</v>
       </c>
       <c r="D396" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>1053</v>
@@ -19345,13 +19345,13 @@
         <v>1319</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>577</v>
       </c>
       <c r="D397" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>1054</v>
@@ -19383,7 +19383,7 @@
         <v>588</v>
       </c>
       <c r="D398" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E398" s="16" t="s">
         <v>1055</v>
@@ -19403,13 +19403,13 @@
         <v>1321</v>
       </c>
       <c r="B399" s="18" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C399" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D399" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E399" s="19" t="s">
         <v>1056</v>
@@ -19431,13 +19431,13 @@
         <v>1322</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C400" s="13" t="s">
         <v>589</v>
       </c>
       <c r="D400" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E400" s="15" t="s">
         <v>1057</v>
@@ -19461,13 +19461,13 @@
         <v>1323</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>578</v>
       </c>
       <c r="D401" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>1058</v>
@@ -19493,13 +19493,13 @@
         <v>1324</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>580</v>
       </c>
       <c r="D402" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>1059</v>
@@ -19522,16 +19522,16 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>582</v>
       </c>
       <c r="D403" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>1060</v>
@@ -19557,13 +19557,13 @@
         <v>1325</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>584</v>
       </c>
       <c r="D404" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>1061</v>
@@ -19589,13 +19589,13 @@
         <v>1326</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>586</v>
       </c>
       <c r="D405" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>1062</v>
@@ -19621,13 +19621,13 @@
         <v>1327</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>587</v>
       </c>
       <c r="D406" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>1063</v>
@@ -19653,13 +19653,13 @@
         <v>1328</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>590</v>
       </c>
       <c r="D407" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>1064</v>
@@ -19685,13 +19685,13 @@
         <v>1329</v>
       </c>
       <c r="B408" s="18" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C408" s="18" t="s">
         <v>358</v>
       </c>
       <c r="D408" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E408" s="19" t="s">
         <v>1065</v>
@@ -19713,13 +19713,13 @@
         <v>1329</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C409" s="13" t="s">
         <v>598</v>
       </c>
       <c r="D409" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E409" s="15" t="s">
         <v>1066</v>
@@ -19743,13 +19743,13 @@
         <v>1330</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>591</v>
       </c>
       <c r="D410" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>1067</v>
@@ -19781,7 +19781,7 @@
         <v>600</v>
       </c>
       <c r="D411" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E411" s="16" t="s">
         <v>1068</v>
@@ -19801,13 +19801,13 @@
         <v>1332</v>
       </c>
       <c r="B412" s="18" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C412" s="18" t="s">
         <v>375</v>
       </c>
       <c r="D412" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E412" s="19" t="s">
         <v>1069</v>
@@ -19829,13 +19829,13 @@
         <v>1333</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C413" s="13" t="s">
         <v>1334</v>
       </c>
       <c r="D413" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E413" s="15" t="s">
         <v>1070</v>
@@ -19859,13 +19859,13 @@
         <v>1335</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>592</v>
       </c>
       <c r="D414" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>1071</v>
@@ -19888,7 +19888,7 @@
     </row>
     <row r="415" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>1336</v>
@@ -19897,7 +19897,7 @@
         <v>1336</v>
       </c>
       <c r="D415" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E415" s="16" t="s">
         <v>1072</v>
@@ -19914,16 +19914,16 @@
     </row>
     <row r="416" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="17" t="s">
-        <v>1337</v>
+        <v>2173</v>
       </c>
       <c r="B416" s="18" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C416" s="18" t="s">
         <v>394</v>
       </c>
       <c r="D416" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E416" s="19" t="s">
         <v>1073</v>
@@ -19942,16 +19942,16 @@
     </row>
     <row r="417" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B417" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C417" s="13" t="s">
         <v>1338</v>
       </c>
-      <c r="B417" s="13" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C417" s="13" t="s">
-        <v>1339</v>
-      </c>
       <c r="D417" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E417" s="15" t="s">
         <v>1074</v>
@@ -19963,7 +19963,7 @@
         <v>394</v>
       </c>
       <c r="J417" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K417" s="12">
         <v>2.1299999999999999E-2</v>
@@ -19972,16 +19972,16 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>593</v>
       </c>
       <c r="D418" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>1075</v>
@@ -19993,7 +19993,7 @@
         <v>394</v>
       </c>
       <c r="J418" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="L418" s="5" t="s">
         <v>593</v>
@@ -20004,16 +20004,16 @@
     </row>
     <row r="419" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B419" s="13" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C419" s="13" t="s">
         <v>1340</v>
       </c>
-      <c r="B419" s="13" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C419" s="13" t="s">
-        <v>1341</v>
-      </c>
       <c r="D419" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E419" s="15" t="s">
         <v>1076</v>
@@ -20025,7 +20025,7 @@
         <v>394</v>
       </c>
       <c r="J419" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K419" s="12">
         <v>4.4832999999999998</v>
@@ -20034,16 +20034,16 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>594</v>
       </c>
       <c r="D420" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>1077</v>
@@ -20055,7 +20055,7 @@
         <v>394</v>
       </c>
       <c r="J420" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L420" s="5" t="s">
         <v>594</v>
@@ -20066,16 +20066,16 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>595</v>
       </c>
       <c r="D421" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>1078</v>
@@ -20087,7 +20087,7 @@
         <v>394</v>
       </c>
       <c r="J421" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L421" s="5" t="s">
         <v>595</v>
@@ -20098,16 +20098,16 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>596</v>
       </c>
       <c r="D422" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>1079</v>
@@ -20119,7 +20119,7 @@
         <v>394</v>
       </c>
       <c r="J422" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L422" s="5" t="s">
         <v>596</v>
@@ -20130,16 +20130,16 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>597</v>
       </c>
       <c r="D423" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>1080</v>
@@ -20151,7 +20151,7 @@
         <v>394</v>
       </c>
       <c r="J423" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L423" s="5" t="s">
         <v>597</v>
@@ -20162,16 +20162,16 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>599</v>
       </c>
       <c r="D424" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>1081</v>
@@ -20183,7 +20183,7 @@
         <v>394</v>
       </c>
       <c r="J424" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L424" s="5" t="s">
         <v>599</v>
@@ -20194,16 +20194,16 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>601</v>
       </c>
       <c r="D425" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>1082</v>
@@ -20215,7 +20215,7 @@
         <v>394</v>
       </c>
       <c r="J425" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L425" s="5" t="s">
         <v>601</v>
@@ -20226,16 +20226,16 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>602</v>
       </c>
       <c r="D426" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>1083</v>
@@ -20247,7 +20247,7 @@
         <v>394</v>
       </c>
       <c r="J426" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L426" s="5" t="s">
         <v>602</v>
@@ -20258,16 +20258,16 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>603</v>
       </c>
       <c r="D427" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>1084</v>
@@ -20279,7 +20279,7 @@
         <v>394</v>
       </c>
       <c r="J427" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L427" s="5" t="s">
         <v>603</v>
@@ -20290,16 +20290,16 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>604</v>
       </c>
       <c r="D428" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>1085</v>
@@ -20311,7 +20311,7 @@
         <v>394</v>
       </c>
       <c r="J428" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L428" s="5" t="s">
         <v>604</v>
@@ -20322,16 +20322,16 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>605</v>
       </c>
       <c r="D429" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>1086</v>
@@ -20343,7 +20343,7 @@
         <v>394</v>
       </c>
       <c r="J429" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L429" s="5" t="s">
         <v>605</v>
@@ -20354,16 +20354,16 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>606</v>
       </c>
       <c r="D430" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>1087</v>
@@ -20375,7 +20375,7 @@
         <v>394</v>
       </c>
       <c r="J430" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L430" s="5" t="s">
         <v>606</v>
@@ -20386,16 +20386,16 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>607</v>
       </c>
       <c r="D431" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>1088</v>
@@ -20407,7 +20407,7 @@
         <v>394</v>
       </c>
       <c r="J431" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L431" s="5" t="s">
         <v>607</v>
@@ -20418,16 +20418,16 @@
     </row>
     <row r="432" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B432" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C432" s="13" t="s">
         <v>1351</v>
       </c>
-      <c r="B432" s="13" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C432" s="13" t="s">
-        <v>1352</v>
-      </c>
       <c r="D432" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E432" s="15" t="s">
         <v>1089</v>
@@ -20439,7 +20439,7 @@
         <v>394</v>
       </c>
       <c r="J432" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="K432" s="12">
         <v>0.72330000000000005</v>
@@ -20448,16 +20448,16 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>608</v>
       </c>
       <c r="D433" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>1090</v>
@@ -20469,7 +20469,7 @@
         <v>394</v>
       </c>
       <c r="J433" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="L433" s="5" t="s">
         <v>608</v>
@@ -20480,16 +20480,16 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>609</v>
       </c>
       <c r="D434" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>1091</v>
@@ -20501,7 +20501,7 @@
         <v>394</v>
       </c>
       <c r="J434" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="L434" s="5" t="s">
         <v>609</v>
@@ -20512,16 +20512,16 @@
     </row>
     <row r="435" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="17" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B435" s="18" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C435" s="18" t="s">
         <v>397</v>
       </c>
       <c r="D435" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E435" s="19" t="s">
         <v>1092</v>
@@ -20540,16 +20540,16 @@
     </row>
     <row r="436" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B436" s="13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C436" s="13" t="s">
         <v>1356</v>
       </c>
-      <c r="B436" s="13" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C436" s="13" t="s">
-        <v>1357</v>
-      </c>
       <c r="D436" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E436" s="15" t="s">
         <v>1093</v>
@@ -20561,7 +20561,7 @@
         <v>397</v>
       </c>
       <c r="J436" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="K436" s="12">
         <v>4.9000000000000002E-2</v>
@@ -20570,16 +20570,16 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>610</v>
       </c>
       <c r="D437" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>1094</v>
@@ -20591,7 +20591,7 @@
         <v>397</v>
       </c>
       <c r="J437" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="L437" s="5" t="s">
         <v>610</v>
@@ -20602,16 +20602,16 @@
     </row>
     <row r="438" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B438" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C438" s="13" t="s">
         <v>1358</v>
       </c>
-      <c r="B438" s="13" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C438" s="13" t="s">
-        <v>1359</v>
-      </c>
       <c r="D438" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E438" s="15" t="s">
         <v>1095</v>
@@ -20623,7 +20623,7 @@
         <v>397</v>
       </c>
       <c r="J438" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="K438" s="12">
         <v>0.1057</v>
@@ -20632,16 +20632,16 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>611</v>
       </c>
       <c r="D439" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>1096</v>
@@ -20653,7 +20653,7 @@
         <v>397</v>
       </c>
       <c r="J439" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="L439" s="5" t="s">
         <v>611</v>
@@ -20664,16 +20664,16 @@
     </row>
     <row r="440" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="17" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C440" s="18" t="s">
         <v>399</v>
       </c>
       <c r="D440" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E440" s="19" t="s">
         <v>1097</v>
@@ -20692,16 +20692,16 @@
     </row>
     <row r="441" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B441" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C441" s="13" t="s">
         <v>1361</v>
       </c>
-      <c r="B441" s="13" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C441" s="13" t="s">
-        <v>1362</v>
-      </c>
       <c r="D441" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E441" s="15" t="s">
         <v>1098</v>
@@ -20713,7 +20713,7 @@
         <v>399</v>
       </c>
       <c r="J441" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K441" s="12">
         <v>3.3500000000000002E-2</v>
@@ -20722,16 +20722,16 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>612</v>
       </c>
       <c r="D442" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>1099</v>
@@ -20743,7 +20743,7 @@
         <v>399</v>
       </c>
       <c r="J442" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="L442" s="5" t="s">
         <v>612</v>
@@ -20754,16 +20754,16 @@
     </row>
     <row r="443" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C443" s="18" t="s">
         <v>413</v>
       </c>
       <c r="D443" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E443" s="19" t="s">
         <v>1100</v>
@@ -20782,16 +20782,16 @@
     </row>
     <row r="444" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B444" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C444" s="13" t="s">
         <v>1364</v>
       </c>
-      <c r="B444" s="13" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C444" s="13" t="s">
-        <v>1365</v>
-      </c>
       <c r="D444" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E444" s="15" t="s">
         <v>1101</v>
@@ -20803,7 +20803,7 @@
         <v>413</v>
       </c>
       <c r="J444" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K444" s="12">
         <v>0.61180000000000001</v>
@@ -20812,16 +20812,16 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>613</v>
       </c>
       <c r="D445" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>1102</v>
@@ -20833,7 +20833,7 @@
         <v>413</v>
       </c>
       <c r="J445" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L445" s="5" t="s">
         <v>613</v>
@@ -20844,16 +20844,16 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>614</v>
       </c>
       <c r="D446" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E446" s="3" t="s">
         <v>1103</v>
@@ -20865,7 +20865,7 @@
         <v>413</v>
       </c>
       <c r="J446" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L446" s="5" t="s">
         <v>614</v>
@@ -20876,16 +20876,16 @@
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>615</v>
       </c>
       <c r="D447" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>1104</v>
@@ -20897,7 +20897,7 @@
         <v>413</v>
       </c>
       <c r="J447" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L447" s="5" t="s">
         <v>615</v>
@@ -20908,7 +20908,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>616</v>
@@ -20928,7 +20928,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>617</v>
@@ -20948,7 +20948,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B450" s="5" t="s">
         <v>618</v>
@@ -20968,7 +20968,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B451" s="5" t="s">
         <v>619</v>
@@ -20988,7 +20988,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B452" s="5" t="s">
         <v>620</v>
@@ -21008,7 +21008,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B453" s="5" t="s">
         <v>621</v>
@@ -21028,7 +21028,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>622</v>
@@ -21047,7 +21047,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M454" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
+++ b/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DDDA62-B90B-6A44-A9B4-C802A139B3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557E4D5-4093-594E-B7FF-B68150611296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="980" windowWidth="28800" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7055,8 +7055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7118,6 +7118,9 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>1.3609522607803</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>

--- a/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
+++ b/01_datos_crudos/01_03_inpc_complete_NewVersion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_inflacion/01_datos_crudos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557E4D5-4093-594E-B7FF-B68150611296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E17596F-209D-F541-91CB-7FBECB5CB904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="980" windowWidth="28800" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6567,7 +6567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6603,6 +6603,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -6710,7 +6717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6756,6 +6763,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7056,7 +7064,7 @@
   <dimension ref="A1:N454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7118,7 +7126,7 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="22">
         <v>1.3609522607803</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -7233,7 +7241,7 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="23">
         <v>1.52057007048839</v>
       </c>
       <c r="C6" s="5" t="s">
